--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasratte/makers/Github/BAC-PRO-CIEL-EVAL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A169E191-7CE1-5542-8B66-CE01E4EE91C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A01F68-A3A0-544D-A30B-5CE36FEAF1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>mathysbecuwe@gmail.com</t>
   </si>
   <si>
-    <t>1CIEL</t>
-  </si>
-  <si>
     <t>07/07/2008</t>
   </si>
   <si>
@@ -73,13 +70,16 @@
   </si>
   <si>
     <t>03/09/2009</t>
+  </si>
+  <si>
+    <t>Première</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
@@ -101,6 +101,11 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -148,7 +153,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -165,6 +170,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -507,7 +515,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -551,11 +559,11 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -563,17 +571,17 @@
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
